--- a/public/Sample_Security_Type_Masters.xlsx
+++ b/public/Sample_Security_Type_Masters.xlsx
@@ -5,15 +5,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Security Type Masters List" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>Instrument Type*</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t>Instrument Type</t>
   </si>
   <si>
     <t>Symbol</t>
@@ -40,9 +40,6 @@
     <t>Paid Up Value</t>
   </si>
   <si>
-    <t>Face Value</t>
-  </si>
-  <si>
     <t>Dividend</t>
   </si>
   <si>
@@ -61,25 +58,33 @@
     <t>Distinctive Numbers From</t>
   </si>
   <si>
-    <t>Distinctive Number To</t>
-  </si>
-  <si>
-    <t>Company Master Id*</t>
+    <t>Distinctive Numbers To</t>
+  </si>
+  <si>
+    <t>Company Master Id</t>
+  </si>
+  <si>
+    <t>InvIT</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>77ujn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -91,56 +96,27 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -164,29 +140,23 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -206,7 +176,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff757575"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -214,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -230,22 +200,22 @@
         <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -254,7 +224,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -266,7 +236,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Sheets">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -339,13 +309,31 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -406,17 +394,23 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -444,10 +438,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -695,14 +689,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -987,7 +987,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1015,10 +1015,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1269,20 +1269,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="21" width="12.6719" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="17" width="8.85156" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.75" customHeight="1">
+    <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1334,222 +1331,204 @@
       <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="B2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4">
+        <v>45474.602475081017</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45474.602475081017</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45474.602475081017</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45474.602475081017</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="13.75" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
